--- a/server/tmp/main.xlsx
+++ b/server/tmp/main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90191CE-B552-4CFA-A457-4E7B6DB31C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CF93BB-5E2B-4E86-94B5-38D5CAC48F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="-16200" windowWidth="17280" windowHeight="16200" xr2:uid="{15E76F48-E9BC-4452-B368-5676E3C03F51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{15E76F48-E9BC-4452-B368-5676E3C03F51}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Func 1</t>
   </si>
@@ -48,9 +48,6 @@
     <t>func2@gmail.com</t>
   </si>
   <si>
-    <t>html</t>
-  </si>
-  <si>
     <t>html,css,javascript</t>
   </si>
   <si>
@@ -97,13 +94,19 @@
   </si>
   <si>
     <t>marketing</t>
+  </si>
+  <si>
+    <t>Social Media,Iot no Marketing,User Experience</t>
+  </si>
+  <si>
+    <t>geral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +126,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -471,7 +480,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +488,7 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -496,16 +505,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -519,62 +528,62 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>253345345</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>23423234</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -601,11 +610,12 @@
       <c r="F13" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{02993E24-6268-437B-AB8A-2950110AAB41}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{0E761833-BD53-4C50-A4C6-15CC93591CB0}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{BF50C4EE-A844-4C65-9894-A1EE5BD2EEDF}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{06D45456-D114-441E-AFAD-3727DA073540}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{06D45456-D114-441E-AFAD-3727DA073540}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{0E761833-BD53-4C50-A4C6-15CC93591CB0}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{BF50C4EE-A844-4C65-9894-A1EE5BD2EEDF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>

--- a/server/tmp/main.xlsx
+++ b/server/tmp/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CF93BB-5E2B-4E86-94B5-38D5CAC48F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F1F9D-A392-49BE-A6A1-994043254513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{15E76F48-E9BC-4452-B368-5676E3C03F51}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>gerente 1</t>
   </si>
   <si>
-    <t>gent1@gamil.com</t>
-  </si>
-  <si>
     <t>powerBi</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>geral</t>
+  </si>
+  <si>
+    <t>gent1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,13 +528,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -571,16 +571,16 @@
         <v>23423234</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -590,6 +590,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">

--- a/server/tmp/main.xlsx
+++ b/server/tmp/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F1F9D-A392-49BE-A6A1-994043254513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ACD0AB-BA0C-42C1-874A-E76235A9A6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{15E76F48-E9BC-4452-B368-5676E3C03F51}"/>
+    <workbookView xWindow="-15420" yWindow="-16200" windowWidth="20745" windowHeight="16200" xr2:uid="{15E76F48-E9BC-4452-B368-5676E3C03F51}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>Func 1</t>
-  </si>
-  <si>
-    <t>Func 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>func1@gmail.com</t>
   </si>
@@ -57,49 +51,103 @@
     <t>Candidato</t>
   </si>
   <si>
-    <t>ingles,espanhol,frances</t>
-  </si>
-  <si>
-    <t>Cand 1</t>
-  </si>
-  <si>
     <t>tecnologia</t>
   </si>
   <si>
     <t>gestor</t>
   </si>
   <si>
-    <t>espanhol,italiano</t>
-  </si>
-  <si>
     <t>cand1@gmail.com</t>
   </si>
   <si>
-    <t>javascript,typescript,css</t>
-  </si>
-  <si>
-    <t>ingles,espanhol</t>
-  </si>
-  <si>
-    <t>gerente 1</t>
-  </si>
-  <si>
-    <t>powerBi</t>
-  </si>
-  <si>
-    <t>ingles,mandarim</t>
+    <t>html,css</t>
+  </si>
+  <si>
+    <t>ingles</t>
+  </si>
+  <si>
+    <t>func3@gmail.com</t>
+  </si>
+  <si>
+    <t>mandarim</t>
+  </si>
+  <si>
+    <t>carlos@gmail.com</t>
+  </si>
+  <si>
+    <t>Maria Holanda</t>
+  </si>
+  <si>
+    <t>224.324.324-24</t>
+  </si>
+  <si>
+    <t>224.324.324-25</t>
+  </si>
+  <si>
+    <t>224.324.324-26</t>
+  </si>
+  <si>
+    <t>224.324.324-27</t>
+  </si>
+  <si>
+    <t>224.324.324-28</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Raphael Cassari Benedicto</t>
+  </si>
+  <si>
+    <t>rapha@gmail.com</t>
+  </si>
+  <si>
+    <t>Carlos Fernandes Rodriguez</t>
+  </si>
+  <si>
+    <t>224.324.324-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos </t>
+  </si>
+  <si>
+    <t>224.324.324-30</t>
+  </si>
+  <si>
+    <t>marcos@gmail.com</t>
+  </si>
+  <si>
+    <t>social media, PNL</t>
   </si>
   <si>
     <t>marketing</t>
   </si>
   <si>
-    <t>Social Media,Iot no Marketing,User Experience</t>
-  </si>
-  <si>
-    <t>geral</t>
-  </si>
-  <si>
-    <t>gent1@gmail.com</t>
+    <t>224.324.324-31</t>
+  </si>
+  <si>
+    <t>marcia@gmail.com</t>
+  </si>
+  <si>
+    <t>portugues</t>
+  </si>
+  <si>
+    <t>rh</t>
+  </si>
+  <si>
+    <t>funcionario</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
+    <t>gestão inteligente, inteligencia emocional</t>
   </si>
 </sst>
 </file>
@@ -158,10 +206,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -480,121 +529,203 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>234234</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>32442</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>253345345</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>23423234</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="1"/>
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
@@ -617,8 +748,12 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{06D45456-D114-441E-AFAD-3727DA073540}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{0E761833-BD53-4C50-A4C6-15CC93591CB0}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{BF50C4EE-A844-4C65-9894-A1EE5BD2EEDF}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{1CDC7135-B91A-43CE-865B-ABA570E86426}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{62E4CFE5-DDCC-4B48-AF0D-8115772DF2F9}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{0A5B37CC-7723-42CB-9F15-9F95D2FBD58F}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{56481EA7-022B-4BF0-A3AB-4B2FC7CD4902}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/server/tmp/main.xlsx
+++ b/server/tmp/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ACD0AB-BA0C-42C1-874A-E76235A9A6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE0A058-A534-4C0B-AF22-89558C27F534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15420" yWindow="-16200" windowWidth="20745" windowHeight="16200" xr2:uid="{15E76F48-E9BC-4452-B368-5676E3C03F51}"/>
+    <workbookView xWindow="-1800" yWindow="-240" windowWidth="20730" windowHeight="11760" xr2:uid="{15E76F48-E9BC-4452-B368-5676E3C03F51}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>func1@gmail.com</t>
   </si>
@@ -127,27 +127,6 @@
   </si>
   <si>
     <t>marketing</t>
-  </si>
-  <si>
-    <t>224.324.324-31</t>
-  </si>
-  <si>
-    <t>marcia@gmail.com</t>
-  </si>
-  <si>
-    <t>portugues</t>
-  </si>
-  <si>
-    <t>rh</t>
-  </si>
-  <si>
-    <t>funcionario</t>
-  </si>
-  <si>
-    <t>Marcia</t>
-  </si>
-  <si>
-    <t>gestão inteligente, inteligencia emocional</t>
   </si>
 </sst>
 </file>
@@ -529,7 +508,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +516,7 @@
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -705,27 +684,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
@@ -751,9 +710,8 @@
     <hyperlink ref="C5" r:id="rId5" xr:uid="{1CDC7135-B91A-43CE-865B-ABA570E86426}"/>
     <hyperlink ref="C6" r:id="rId6" xr:uid="{62E4CFE5-DDCC-4B48-AF0D-8115772DF2F9}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{0A5B37CC-7723-42CB-9F15-9F95D2FBD58F}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{56481EA7-022B-4BF0-A3AB-4B2FC7CD4902}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>